--- a/output/aggregate_tables/Area Statistics/area_51_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_51_summary.xlsx
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>94.76822881745279</v>
+        <v>95.36887660432313</v>
       </c>
     </row>
     <row r="3">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>71.99667477237122</v>
+        <v>72.46514974761338</v>
       </c>
     </row>
     <row r="9">

--- a/output/aggregate_tables/Area Statistics/area_51_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_51_summary.xlsx
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.124511467475507</v>
+        <v>1.124014212475507</v>
       </c>
     </row>
     <row r="3">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.029370778761085</v>
+        <v>3.028873523761085</v>
       </c>
     </row>
     <row r="6">
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>25.99991269333398</v>
+        <v>25.99140387354132</v>
       </c>
     </row>
     <row r="8">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>44.04239282476506</v>
+        <v>44.04745699154409</v>
       </c>
     </row>
     <row r="9">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>29.95769448190097</v>
+        <v>29.9611391349146</v>
       </c>
     </row>
     <row r="10">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>70.04230551809903</v>
+        <v>70.03886086508541</v>
       </c>
     </row>
     <row r="11">
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>29.95769448190097</v>
+        <v>29.9611391349146</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +1576,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.124511467475507</v>
+        <v>1.124014212475507</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>1.904859311285578</v>
@@ -1585,25 +1585,25 @@
         <v>1.295687850238915</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.029370778761085</v>
+        <v>3.028873523761085</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>1.295687850238915</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>25.99991269333398</v>
+        <v>25.99140387354132</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>44.04239282476506</v>
+        <v>44.04745699154409</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.95769448190097</v>
+        <v>29.9611391349146</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>70.04230551809903</v>
+        <v>70.03886086508541</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>29.95769448190097</v>
+        <v>29.9611391349146</v>
       </c>
     </row>
     <row r="5">
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.124511467475507</v>
+        <v>1.124014212475507</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>1.904859311285578</v>
@@ -1622,25 +1622,25 @@
         <v>1.295687850238915</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.029370778761085</v>
+        <v>3.028873523761085</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>1.295687850238915</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>25.99991269333398</v>
+        <v>25.99140387354132</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.04239282476506</v>
+        <v>44.04745699154409</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>29.95769448190097</v>
+        <v>29.9611391349146</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>70.04230551809903</v>
+        <v>70.03886086508541</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>29.95769448190097</v>
+        <v>29.9611391349146</v>
       </c>
     </row>
     <row r="6">
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>95.36887660432313</v>
+        <v>95.35980609945506</v>
       </c>
     </row>
     <row r="3">
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>25.99991269333398</v>
+        <v>25.99140387354132</v>
       </c>
     </row>
     <row r="4">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>44.04239282476506</v>
+        <v>44.04745699154409</v>
       </c>
     </row>
     <row r="5">
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>29.95769448190097</v>
+        <v>29.9611391349146</v>
       </c>
     </row>
     <row r="6">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>70.04230551809903</v>
+        <v>70.03886086508541</v>
       </c>
     </row>
     <row r="7">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>29.95769448190097</v>
+        <v>29.9611391349146</v>
       </c>
     </row>
     <row r="8">

--- a/output/aggregate_tables/Area Statistics/area_51_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_51_summary.xlsx
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>95.35980609945506</v>
+        <v>95.35073559458699</v>
       </c>
     </row>
     <row r="3">

--- a/output/aggregate_tables/Area Statistics/area_51_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_51_summary.xlsx
@@ -9,10 +9,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Number" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Tier" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Stocks" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Area by Tier" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -124,27 +125,6 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin"/>
@@ -176,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -194,10 +174,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1024,7 +1002,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
@@ -1046,6 +1024,230 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No. of stocks</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ASFIS species</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ISSCAAP groups</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>No. of U</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>No. of MSF</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>No. of O</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sustainable</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Unsustainable</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Tier 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>156</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>26.92307692307692</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>28.2051282051282</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>44.87179487179488</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>55.12820512820513</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>44.87179487179488</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Tier 2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>20.74074074074074</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>48.88888888888889</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>30.37037037037037</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>69.62962962962963</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>30.37037037037037</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Tier 3</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>185</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>131</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>121</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>20.54054054054054</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>44.86486486486487</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>34.5945945945946</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>65.4054054054054</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>34.5945945945946</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1320,159 +1522,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" s="8" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Total Landings</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>U (Mt)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>1.124014212475507</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>MSF (Mt)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>1.904859311285578</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>O (Mt)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>1.295687850238915</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>3.028873523761085</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.295687850238915</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Weighted % by Landings</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>25.99140387354132</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="n"/>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>44.04745699154409</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>29.9611391349146</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>70.03886086508541</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>29.9611391349146</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,19 +1543,19 @@
           <t>Total Landings</t>
         </is>
       </c>
-      <c r="C1" s="11" t="n"/>
-      <c r="D1" s="11" t="n"/>
-      <c r="E1" s="11" t="n"/>
-      <c r="F1" s="12" t="n"/>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
       <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Weighted % by Landings</t>
         </is>
       </c>
-      <c r="H1" s="11" t="n"/>
-      <c r="I1" s="11" t="n"/>
-      <c r="J1" s="11" t="n"/>
-      <c r="K1" s="12" t="n"/>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
@@ -1555,11 +1611,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="n"/>
       <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
@@ -1572,7 +1624,7 @@
       <c r="K3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="11" t="n">
         <v>51</v>
       </c>
       <c r="B4" s="4" t="n">
@@ -1604,65 +1656,6 @@
       </c>
       <c r="K4" s="4" t="n">
         <v>29.9611391349146</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>1.124014212475507</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>1.904859311285578</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1.295687850238915</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>3.028873523761085</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.295687850238915</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>25.99140387354132</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>44.04745699154409</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>29.9611391349146</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>70.03886086508541</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>29.9611391349146</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>48,58,88</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1689,154 +1682,403 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="8" t="n">
-        <v>51</v>
-      </c>
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Total Landings</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Weighted % by Landings</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Updated SoSI Categories</t>
-        </is>
-      </c>
+      <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>95.35073559458699</v>
+          <t>U (Mt)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (Mt)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (Mt)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.4686670900662838</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0.7867658254366285</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.8646187358516968</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.255432915502912</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.8646187358516968</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>22.1063996137466</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>37.1106913802748</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>40.7829090059786</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>59.2170909940214</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>40.7829090059786</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>0.4653226777203348</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0.7958375632159288</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.1581723330121719</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.261160240936263</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.1581723330121719</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>32.78461202548571</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>56.07125333578384</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>11.14413463873044</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>88.85586536126957</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>11.14413463873044</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.1900244446888889</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.3222559226330206</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.2728967813750459</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.5122803673219095</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.2728967813750459</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>24.2014741519471</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>41.04244795812282</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>34.75607788993008</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>65.24392211006992</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>34.75607788993008</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>Area 51 Total</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>1.124014212475507</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1.904859311285578</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1.295687850238915</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>3.028873523761086</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.295687850238915</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>25.99140387354132</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>44.04745699154409</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="H7" s="4" t="n">
+        <v>44.0474569915441</v>
+      </c>
+      <c r="I7" s="4" t="n">
         <v>29.9611391349146</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="J7" s="4" t="n">
         <v>70.03886086508541</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="n"/>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="K7" s="4" t="n">
         <v>29.9611391349146</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>Previous SoSI Categories</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>72.46514974761338</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>4.503780781385686</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>37.86560568152591</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>57.63061353708841</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>42.36938646291159</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>57.63061353708841</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Updated SoSI Categories</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="10" t="n"/>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Previous SoSI Categories</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="9" t="n"/>
+      <c r="L1" s="9" t="n"/>
+      <c r="M1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>94.42726519032928</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>25.99140387354132</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>44.04745699154409</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>29.9611391349146</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>70.03886086508541</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>29.9611391349146</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>67.0579398677236</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>4.503780781385686</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>37.86560568152591</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>57.63061353708841</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>42.36938646291159</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>57.63061353708841</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/aggregate_tables/Area Statistics/area_51_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_51_summary.xlsx
@@ -1029,7 +1029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,6 +1240,52 @@
       </c>
       <c r="N4" s="4" t="n">
         <v>34.5945945945946</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>476</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>288</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>108</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>193</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>175</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>301</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>175</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>22.6890756302521</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>40.54621848739496</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>36.76470588235294</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>63.23529411764706</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>36.76470588235294</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,77 +1989,65 @@
       <c r="C1" s="9" t="n"/>
       <c r="D1" s="9" t="n"/>
       <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="10" t="n"/>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Previous SoSI Categories</t>
         </is>
       </c>
+      <c r="H1" s="9" t="n"/>
       <c r="I1" s="9" t="n"/>
       <c r="J1" s="9" t="n"/>
-      <c r="K1" s="9" t="n"/>
-      <c r="L1" s="9" t="n"/>
-      <c r="M1" s="10" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
+          <t>U (%)</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
           <t>U (%)</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>MSF (%)</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
         <is>
           <t>O (%)</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="J2" s="8" t="inlineStr">
         <is>
           <t>Sustainable (%)</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
       <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="L2" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="inlineStr">
         <is>
           <t>Unsustainable (%)</t>
         </is>
@@ -2031,54 +2065,46 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="n">
         <v>51</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>94.42726519032928</v>
+        <v>25.99140387354132</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>25.99140387354132</v>
+        <v>44.04745699154409</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>44.04745699154409</v>
+        <v>29.9611391349146</v>
       </c>
       <c r="E4" s="4" t="n">
+        <v>70.03886086508541</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>29.9611391349146</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>70.03886086508541</v>
-      </c>
       <c r="G4" s="4" t="n">
-        <v>29.9611391349146</v>
+        <v>7.308967266794347</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>67.0579398677236</v>
+        <v>70.41632166162654</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.503780781385686</v>
+        <v>22.27471107157911</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>37.86560568152591</v>
+        <v>77.72528892842089</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>57.63061353708841</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>42.36938646291159</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>57.63061353708841</v>
+        <v>22.27471107157911</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/aggregate_tables/Area Statistics/area_51_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_51_summary.xlsx
@@ -1857,31 +1857,31 @@
         <v>0.4653226777203348</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.7958375632159288</v>
+        <v>0.7957742662159288</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.1581723330121719</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.261160240936263</v>
+        <v>1.261096943936264</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>0.1581723330121719</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>32.78461202548571</v>
+        <v>32.78607416351765</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>56.07125333578384</v>
+        <v>56.06929418826845</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.14413463873044</v>
+        <v>11.1446316482139</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>88.85586536126957</v>
+        <v>88.8553683517861</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.14413463873044</v>
+        <v>11.1446316482139</v>
       </c>
     </row>
     <row r="6">
@@ -1892,31 +1892,31 @@
         <v>0.1900244446888889</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.3222559226330206</v>
+        <v>0.3223192196330205</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.2728967813750459</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.5122803673219095</v>
+        <v>0.5123436643219095</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>0.2728967813750459</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>24.2014741519471</v>
+        <v>24.19952330909662</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>41.04244795812282</v>
+        <v>41.04720043386709</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>34.75607788993008</v>
+        <v>34.75327625703628</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>65.24392211006992</v>
+        <v>65.24672374296371</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>34.75607788993008</v>
+        <v>34.75327625703628</v>
       </c>
     </row>
     <row r="7">
@@ -1935,7 +1935,7 @@
         <v>1.295687850238915</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>3.028873523761086</v>
+        <v>3.028873523761085</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>1.295687850238915</v>
@@ -1944,13 +1944,13 @@
         <v>25.99140387354132</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>44.0474569915441</v>
+        <v>44.04745699154408</v>
       </c>
       <c r="I7" s="4" t="n">
         <v>29.9611391349146</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>70.03886086508541</v>
+        <v>70.0388608650854</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>29.9611391349146</v>
